--- a/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFD95EE-FAEE-44AE-927D-9A151A832F34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F32B5B-DE95-4955-B5F6-5FD3A5D2D556}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>직위</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,66 +35,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주민등록번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육이수번호/인증서번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상근여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문인력여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신동환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000-0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 = 1
+    <t>880131-0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분
+신규 = 1
 경력 = 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상근 = 1
+    <t>주민등록번호
+000000-0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이수번호/인증서번호
+0000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력시작일
+YYYY-MM-DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력종료일
+YYYY-MM-DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상근여부
+상근 = 1
 비상근 = 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전문인력 = 1
+    <t>전문인력여부
+전문인력 = 1
 비전문인력 = 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>880131-0000000</t>
+    <t>홍길동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,8 +162,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -512,90 +495,61 @@
     <col min="9" max="9" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1111111111</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>1234123412</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44287</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44288</v>
-      </c>
-      <c r="H3">
+        <v>2021051312</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43922</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45153</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I2">
         <v>2</v>
       </c>
     </row>

--- a/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F32B5B-DE95-4955-B5F6-5FD3A5D2D556}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261427D9-8AB1-47CC-BDCC-F4F78C4C7935}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -24,8 +24,215 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>a</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2105C2CB-0C9A-4804-941A-B584F56434D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>신규</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A50D4226-E911-413A-BBB9-6A04E38C211D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>000000-0000000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FD584192-1827-4B62-A6E1-378645F57596}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0000000000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{040C31A3-9D98-496D-92C2-9D1F4AF5174C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YYYY-MM-DD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B5271031-0170-45E7-9CF2-28AA72EC3E32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YYYY-MM-DD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B1BFF63D-22E0-4DCF-B20D-2B439C3159D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상근</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비상근</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{ED1DF412-BBA7-44AA-9A8F-4F8133836AAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전문인력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비전문인력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>직위</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,53 +242,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>880131-0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분
-신규 = 1
-경력 = 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주민등록번호
-000000-0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육이수번호/인증서번호
-0000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력시작일
-YYYY-MM-DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력종료일
-YYYY-MM-DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상근여부
-상근 = 1
-비상근 = 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문인력여부
-전문인력 = 1
-비전문인력 = 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이수번호/인증서번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상근여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문인력여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +289,21 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -149,15 +349,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,8 +675,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -495,67 +692,39 @@
     <col min="9" max="9" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>2021051312</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43922</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45153</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261427D9-8AB1-47CC-BDCC-F4F78C4C7935}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9335590-37EB-4953-A6DB-D2766928CF3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\git\loans\src\main\resources\static\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9335590-37EB-4953-A6DB-D2766928CF3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF25AF5D-5AA3-4CD9-8675-32500DEB87CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF25AF5D-5AA3-4CD9-8675-32500DEB87CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080116AB-9CE6-4341-9C2D-E16F41751673}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,18 +349,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,45 +682,46 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="4"/>
+    <col min="3" max="4" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_대표자및임원_샘플.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080116AB-9CE6-4341-9C2D-E16F41751673}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>a</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2105C2CB-0C9A-4804-941A-B584F56434D2}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A50D4226-E911-413A-BBB9-6A04E38C211D}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,21 +85,170 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FD584192-1827-4B62-A6E1-378645F57596}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0000000000</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수료증</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>및</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인증서의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력
+하이픈</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{040C31A3-9D98-496D-92C2-9D1F4AF5174C}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,11 +258,107 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>YYYY-MM-DD</t>
+          <t xml:space="preserve">YYYY-MM-DD
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>금융상품직접판매업</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>년이상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종사자인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우에만</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B5271031-0170-45E7-9CF2-28AA72EC3E32}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,11 +368,107 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>YYYY-MM-DD</t>
+          <t xml:space="preserve">YYYY-MM-DD
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>금융상품직접판매업</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>년이상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종사자인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우에만</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B1BFF63D-22E0-4DCF-B20D-2B439C3159D7}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{ED1DF412-BBA7-44AA-9A8F-4F8133836AAA}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +608,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,32 +1006,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="4"/>
+    <col min="1" max="1" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="4"/>
     <col min="3" max="4" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
